--- a/Decision Tree - Information Gain Calculation.xlsx
+++ b/Decision Tree - Information Gain Calculation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GitHub\itv-machine-learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itvedant-le2\Desktop\GitHut\itv-machine-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Step 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dataset!$A$1:$F$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dataset!$A$1:$J$15</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -168,7 +168,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -223,23 +223,23 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,21 +520,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F15"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="3"/>
     <col min="8" max="8" width="9" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="59.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -564,13 +563,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>12</v>
@@ -579,27 +578,27 @@
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -638,22 +637,25 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3">
         <v>0</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>18</v>
@@ -662,15 +664,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>13</v>
@@ -689,18 +691,18 @@
         <v>-0.41206796145582381</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>1</v>
@@ -717,7 +719,7 @@
         <v>-0.15973109972377658</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -739,13 +741,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>12</v>
@@ -757,61 +759,61 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>15</v>
@@ -837,7 +839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -859,32 +861,25 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" s="3" t="b">
         <v>1</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F15">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="High"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -894,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:N17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -914,24 +909,24 @@
       <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="I1" s="10" t="s">
+      <c r="G1" s="12"/>
+      <c r="I1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="M1" s="10" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="M1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="10"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
@@ -1157,7 +1152,7 @@
       <c r="B10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <f xml:space="preserve"> -(2/5 * LOG(2/5, 2)) - (3/5 * LOG(3/5, 2))</f>
         <v>0.97095059445466858</v>
       </c>
@@ -1176,7 +1171,7 @@
       <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <f xml:space="preserve"> -(4/4 * LOG(4/4, 2))</f>
         <v>0</v>
       </c>
@@ -1199,7 +1194,7 @@
       <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <f xml:space="preserve"> -(3/5 * LOG(3/5, 2)) - (2/5 * LOG(2/5, 2))</f>
         <v>0.97095059445466858</v>
       </c>
@@ -1238,17 +1233,17 @@
       <c r="A14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <f xml:space="preserve"> 5/14 * D10 + 4/14 * D11 + 5/14 * D12</f>
         <v>0.69353613889619181</v>
       </c>
@@ -1286,7 +1281,7 @@
       <c r="A17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <f>Dataset!I7-'Step 2'!B15</f>
         <v>0.24674981977443911</v>
       </c>
@@ -1297,21 +1292,21 @@
       <c r="F17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="10">
         <f>Dataset!I7-G15</f>
         <v>4.8127030408269267E-2</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="10">
         <f>Dataset!I7-K15</f>
         <v>2.9222565658954647E-2</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="10">
         <f>Dataset!I7-N15</f>
         <v>0.15183550136234136</v>
       </c>
@@ -1333,7 +1328,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,7 +1348,7 @@
       <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="11">
         <v>0.24674981977443911</v>
       </c>
     </row>

--- a/Decision Tree - Information Gain Calculation.xlsx
+++ b/Decision Tree - Information Gain Calculation.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
-    <sheet name="Step 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Step 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Step 2" sheetId="2" r:id="rId3"/>
+    <sheet name="Step 3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dataset!$A$1:$J$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$F$15</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="44">
   <si>
     <t>Outlook</t>
   </si>
@@ -654,9 +656,6 @@
       <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
       <c r="H5" s="2" t="s">
         <v>18</v>
       </c>
@@ -887,10 +886,334 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F15"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A10" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1323,7 +1646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
